--- a/tests/eindhoven-500/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_Auto_OV.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_Auto_OV.xlsx
@@ -4848,7 +4848,7 @@
         <v>28051.99965600643</v>
       </c>
       <c r="D264">
-        <v>53392.94540648512</v>
+        <v>53392.94540648513</v>
       </c>
       <c r="E264">
         <v>70198.21763969841</v>
@@ -7466,7 +7466,7 @@
         <v>14614.97607532032</v>
       </c>
       <c r="D418">
-        <v>41608.65381416308</v>
+        <v>41608.65381416309</v>
       </c>
       <c r="E418">
         <v>63235.7198139492</v>
